--- a/xlsx/country_comparison/top_tax_all_positive_various.xlsx
+++ b/xlsx/country_comparison/top_tax_all_positive_various.xlsx
@@ -454,10 +454,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -484,7 +484,7 @@
         <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0480768816457683</v>
+        <v>0.0480768816457684</v>
       </c>
       <c r="C3" t="n">
         <v>0.02852787093506</v>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C5" t="n">
         <v>0.55532380171867</v>
@@ -616,7 +616,7 @@
         <v>0.351050882580874</v>
       </c>
       <c r="L5" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M5" t="n">
         <v>0.671355992475847</v>
